--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,51 +43,48 @@
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>false</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -100,49 +97,58 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -506,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -625,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,16 +752,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.6266666666666667</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -843,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6206896551724138</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,16 +902,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.6166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,16 +952,16 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -993,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.4166666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1017,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1025,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1043,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3636363636363636</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,16 +1102,16 @@
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.2295081967213115</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L13">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>846</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2033898305084746</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1193,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.1368421052631579</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,13 +1231,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5289855072463768</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1243,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.02108433734939759</v>
+        <v>0.2395264116575592</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>650</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,10 +1302,10 @@
         <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.01948051948051948</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L17">
         <v>12</v>
@@ -1317,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>604</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1325,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4285714285714285</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1343,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.01792573623559539</v>
+        <v>0.02435064935064935</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>767</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1375,13 +1381,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4102564102564102</v>
+        <v>0.04682274247491638</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1393,57 +1399,109 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.02407407407407407</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K19">
-        <v>0.01555299539170507</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.04697986577181208</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>284</v>
+      <c r="K20">
+        <v>0.02176696542893726</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>0.01957831325301205</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>0.01382488479262673</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>24</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
